--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_1_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_1_sawtooth_10_.xlsx
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1557908640899558</v>
+        <v>0.04462476567923779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1557908640899558</v>
+        <v>0.04462476567923779</v>
       </c>
       <c r="J2" t="n">
-        <v>0.114402832146192</v>
+        <v>0.04064155697093108</v>
       </c>
       <c r="K2" t="n">
-        <v>0.114402832146192</v>
+        <v>0.04064155697093108</v>
       </c>
       <c r="L2" t="n">
-        <v>6.508440141603334</v>
+        <v>7.466497182163403</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.7641282261847735, 14.781008509391441]</t>
+          <t>[0.32306204900709545, 14.60993231531971]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.120061686656314</v>
+        <v>0.04088902655447568</v>
       </c>
       <c r="O2" t="n">
-        <v>0.120061686656314</v>
+        <v>0.04088902655447568</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.42142130072331</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.811421717868698, 0.9685791164220783]</t>
+          <t>[-2.7422110049352346, -8.881784197001252e-16]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2372423028949058</v>
+        <v>0.0500000004411274</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2372423028949058</v>
+        <v>0.0500000004411274</v>
       </c>
       <c r="T2" t="n">
-        <v>11.37237789995025</v>
+        <v>11.25306146723949</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.784536568149143, 15.960219231751367]</t>
+          <t>[7.230002838331853, 15.276120096147135]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.429312763709063e-06</v>
+        <v>1.08840863832782e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>9.429312763709063e-06</v>
+        <v>1.08840863832782e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.976976976976978</v>
+        <v>4.800800800800801</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.391391391391391</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.34534534534535</v>
+        <v>9.601601601601599</v>
       </c>
     </row>
     <row r="3">
@@ -677,67 +677,67 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09791975938027009</v>
+        <v>0.3172302047542273</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09791975938027009</v>
+        <v>0.3172302047542273</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01358321513397875</v>
+        <v>0.008403349655002557</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01358321513397875</v>
+        <v>0.008403349655002557</v>
       </c>
       <c r="L3" t="n">
-        <v>5.964480210837045</v>
+        <v>4.107489981984198</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.2830032219483378, 13.211963643622427]</t>
+          <t>[-3.256053817683698, 11.471033781652094]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1043643621379193</v>
+        <v>0.2671851356721482</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1043643621379193</v>
+        <v>0.2671851356721482</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.000105961327544, 2.188737224122618]</t>
+          <t>[-4.050421759583237, 2.213895123250465]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.558478382347084</v>
+        <v>0.5578227987402717</v>
       </c>
       <c r="S3" t="n">
-        <v>0.558478382347084</v>
+        <v>0.5578227987402717</v>
       </c>
       <c r="T3" t="n">
-        <v>10.01607547294884</v>
+        <v>10.57708117518096</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.143258349758993, 13.88889259613869]</t>
+          <t>[6.739048372692, 14.415113977669929]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.573385273598518e-06</v>
+        <v>1.443404833878503e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.573385273598518e-06</v>
+        <v>1.443404833878503e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.171171171171171</v>
+        <v>3.215215215215217</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.663663663663662</v>
+        <v>-7.751751751751751</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.006006006006</v>
+        <v>14.18218218218218</v>
       </c>
     </row>
     <row r="4">
@@ -767,67 +767,67 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1366744273246943</v>
+        <v>0.2784857805085191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1366744273246943</v>
+        <v>0.2784857805085191</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03316735566487905</v>
+        <v>0.001371436079817601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03316735566487905</v>
+        <v>0.001371436079817601</v>
       </c>
       <c r="L4" t="n">
-        <v>5.344929433494412</v>
+        <v>3.972531784161972</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8227151014715215, 12.512573968460346]</t>
+          <t>[-2.364706768121327, 10.309770336445272]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.14010260355485</v>
+        <v>0.2132541625149693</v>
       </c>
       <c r="O4" t="n">
-        <v>0.14010260355485</v>
+        <v>0.2132541625149693</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3585000625718084</v>
+        <v>-0.1635263443310002</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.6730002920017721, 2.390000417145389]</t>
+          <t>[-3.2579479370560818, 2.9308952483940813]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.7239281609725488</v>
+        <v>0.91570923280726</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7239281609725488</v>
+        <v>0.91570923280726</v>
       </c>
       <c r="T4" t="n">
-        <v>8.733701748500788</v>
+        <v>9.215351047281569</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.937036313874222, 12.530367183127355]</t>
+          <t>[5.592913282415344, 12.837788812147794]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.086462502910337e-05</v>
+        <v>6.084682913520822e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.086462502910337e-05</v>
+        <v>6.084682913520822e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>20.74474474474474</v>
+        <v>0.5725725725725752</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.63163163163163</v>
+        <v>-10.26226226226226</v>
       </c>
       <c r="Z4" t="n">
-        <v>27.85785785785786</v>
+        <v>11.40740740740741</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1277289636012486</v>
+        <v>0.126222436077484</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1277289636012486</v>
+        <v>0.126222436077484</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.399192198486716</v>
+        <v>5.741749377629045</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.1836274004008818, 11.982011797374314]</t>
+          <t>[-1.1781016217671247, 12.661600377025215]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1055054748439122</v>
+        <v>0.1016228379346555</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1055054748439122</v>
+        <v>0.1016228379346555</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1257894956392311</v>
+        <v>0.08176317216550011</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.7673424137311962, 1.5157634224527339]</t>
+          <t>[-1.534631846798618, 1.6981581911296182]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8780338173606603</v>
+        <v>0.9193039837615593</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8780338173606603</v>
+        <v>0.9193039837615593</v>
       </c>
       <c r="T5" t="n">
-        <v>10.05726238217112</v>
+        <v>8.669006341723284</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.317624507098003, 13.796900257244232]</t>
+          <t>[4.6850640694187256, 12.652948614027842]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.271607744797066e-06</v>
+        <v>6.95050522845353e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>2.271607744797066e-06</v>
+        <v>6.95050522845353e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4706706706706747</v>
+        <v>22.91783783783803</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.671581581581643</v>
+        <v>16.94432432432446</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.612922922922992</v>
+        <v>28.89135135135159</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3495572932228298</v>
+        <v>0.1482887594696771</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3495572932228298</v>
+        <v>0.1482887594696771</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.064272035152206</v>
+        <v>6.2055146447282</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.948175003688725, 11.076719073993138]</t>
+          <t>[-2.111143322915198, 14.522172612371598]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2492241282125331</v>
+        <v>0.1398679898862385</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2492241282125331</v>
+        <v>0.1398679898862385</v>
       </c>
       <c r="P6" t="n">
-        <v>0.081763172165501</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.01265842055958, 3.176184764890582]</t>
+          <t>[-2.471763589310889, 1.9182898084982725]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9577936291190974</v>
+        <v>0.8007085769749671</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9577936291190974</v>
+        <v>0.8007085769749671</v>
       </c>
       <c r="T6" t="n">
-        <v>10.70896401661517</v>
+        <v>11.40848133502589</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.725199840855304, 14.692728192375029]</t>
+          <t>[6.918279665161648, 15.898683004890131]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.2904885861319e-06</v>
+        <v>6.217918690376578e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2904885861319e-06</v>
+        <v>6.217918690376578e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>23.20406406406429</v>
+        <v>1.022702702702713</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.62556556556568</v>
+        <v>-7.089189189189248</v>
       </c>
       <c r="Z6" t="n">
-        <v>34.78256256256291</v>
+        <v>9.134594594594674</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1040368657735038</v>
+        <v>0.07553616276333963</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1040368657735038</v>
+        <v>0.07553616276333963</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.723318923949617</v>
+        <v>6.316036119683565</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.4893727902667875, 14.936010638166021]</t>
+          <t>[-0.09922076428176396, 12.731293003648894]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1061443330246665</v>
+        <v>0.05349642164538304</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1061443330246665</v>
+        <v>0.05349642164538304</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3962369112635784</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.559789745926464, 2.352263568453621]</t>
+          <t>[-1.3899739268135027, 1.4025528763774249]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6852072773522873</v>
+        <v>0.9928013641075455</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6852072773522873</v>
+        <v>0.9928013641075455</v>
       </c>
       <c r="T7" t="n">
-        <v>10.81081592852713</v>
+        <v>10.60763508931529</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.3957462386687585, 15.22588561838551]</t>
+          <t>[6.702635508576119, 14.51263467005447]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.154154851601419e-05</v>
+        <v>1.889201669103002e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.154154851601419e-05</v>
+        <v>1.889201669103002e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>22.02738738738761</v>
+        <v>23.19675675675695</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.7084584584586</v>
+        <v>18.0367567567569</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.34631631631661</v>
+        <v>28.35675675675699</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1612356548714422</v>
+        <v>0.01817816738469902</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1612356548714422</v>
+        <v>0.01817816738469902</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.278922405730924</v>
+        <v>7.513704881316851</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.2370515604267052, 11.794896371888553]</t>
+          <t>[1.382806295544249, 13.644603467089453]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1097164712101391</v>
+        <v>0.01743778683081598</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1097164712101391</v>
+        <v>0.01743778683081598</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.08805264694746207</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.9182898084982734, 1.7421845146033492]</t>
+          <t>[-0.9182633181663862, 1.2075791581366184]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9232373280653792</v>
+        <v>0.7852554306129498</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9232373280653792</v>
+        <v>0.7852554306129498</v>
       </c>
       <c r="T8" t="n">
-        <v>9.663486367189893</v>
+        <v>11.05202443957977</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.771504961011926, 13.55546777336786]</t>
+          <t>[7.38706060649328, 14.71698827266627]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.17274494915965e-06</v>
+        <v>2.426787362175276e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>9.17274494915965e-06</v>
+        <v>2.426787362175276e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3294694694694762</v>
+        <v>22.68540540540559</v>
       </c>
       <c r="Y8" t="n">
-        <v>-6.518788788788854</v>
+        <v>18.75729729729744</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.177727727727806</v>
+        <v>26.61351351351373</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04759693340869819</v>
+        <v>0.08775373781642992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04759693340869819</v>
+        <v>0.08775373781642992</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.649795660513203</v>
+        <v>5.636153714498886</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.22841416069752896, 13.071177160328878]</t>
+          <t>[-0.556356543952722, 11.828663972950494]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04270176073205456</v>
+        <v>0.07340054481110614</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04270176073205456</v>
+        <v>0.07340054481110614</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1698158191129631</v>
+        <v>0.1949737182408082</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1950002085726936, 1.5346318467986197]</t>
+          <t>[-1.4340002502872329, 1.8239476867688493]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.803261972571933</v>
+        <v>0.8105956835049362</v>
       </c>
       <c r="S9" t="n">
-        <v>0.803261972571933</v>
+        <v>0.8105956835049362</v>
       </c>
       <c r="T9" t="n">
-        <v>10.72020308093299</v>
+        <v>10.23871344611639</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.977050357572828, 14.463355804293158]</t>
+          <t>[6.650397598388068, 13.82702929384471]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.885450920535163e-07</v>
+        <v>7.404979918135268e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.885450920535163e-07</v>
+        <v>7.404979918135268e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>22.87459459459482</v>
+        <v>22.49945945945964</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.76781781781798</v>
+        <v>16.47945945945959</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.98137137137165</v>
+        <v>28.5194594594597</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07785827102137322</v>
+        <v>0.1093218101275631</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07785827102137322</v>
+        <v>0.1093218101275631</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.275460810518151</v>
+        <v>6.202342835494605</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.6094664959599303, 13.160388116996232]</t>
+          <t>[-1.7101537673743934, 14.114839438363603]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07299845996521137</v>
+        <v>0.1213891039990893</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07299845996521137</v>
+        <v>0.1213891039990893</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1949737182408082</v>
+        <v>0.4968685077749626</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.38368445203154, 1.7736318885131563]</t>
+          <t>[-1.6855792415656952, 2.6793162571156204]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8046830499544004</v>
+        <v>0.6487698813158338</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8046830499544004</v>
+        <v>0.6487698813158338</v>
       </c>
       <c r="T10" t="n">
-        <v>10.24928835635543</v>
+        <v>9.409774038990411</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.370151706606631, 14.128425006104234]</t>
+          <t>[5.287333572179609, 13.532214505801214]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.13128153983655e-06</v>
+        <v>3.469243172582459e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.13128153983655e-06</v>
+        <v>3.469243172582459e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>22.78046046046069</v>
+        <v>21.38378378378396</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.87354354354371</v>
+        <v>13.31837837837848</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.68737737737766</v>
+        <v>29.44918918918943</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_1_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_1_sawtooth_10_.xlsx
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04462476567923779</v>
+        <v>0.07476996974122418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04462476567923779</v>
+        <v>0.07476996974122418</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04064155697093108</v>
+        <v>0.01734625711536886</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04064155697093108</v>
+        <v>0.01734625711536886</v>
       </c>
       <c r="L2" t="n">
-        <v>7.466497182163403</v>
+        <v>7.236649879471321</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.32306204900709545, 14.60993231531971]</t>
+          <t>[-0.6843601769863543, 15.157659935928995]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04088902655447568</v>
+        <v>0.07235623411359549</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04088902655447568</v>
+        <v>0.07235623411359549</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.371105502467618</v>
+        <v>-1.383684452031541</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.7422110049352346, -8.881784197001252e-16]</t>
+          <t>[-2.9057373492662353, 0.13836844520315372]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0500000004411274</v>
+        <v>0.07372611293926479</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0500000004411274</v>
+        <v>0.07372611293926479</v>
       </c>
       <c r="T2" t="n">
-        <v>11.25306146723949</v>
+        <v>12.26669569740748</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.230002838331853, 15.276120096147135]</t>
+          <t>[7.971908788919407, 16.561482605895563]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.08840863832782e-06</v>
+        <v>7.262371917171606e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08840863832782e-06</v>
+        <v>7.262371917171606e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.800800800800801</v>
+        <v>4.844844844844847</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>-0.484484484484482</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.601601601601599</v>
+        <v>10.17417417417418</v>
       </c>
     </row>
     <row r="3">
@@ -677,67 +677,67 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3172302047542273</v>
+        <v>0.1786507449346693</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3172302047542273</v>
+        <v>0.1786507449346693</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008403349655002557</v>
+        <v>0.1235711327390484</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008403349655002557</v>
+        <v>0.1235711327390484</v>
       </c>
       <c r="L3" t="n">
-        <v>4.107489981984198</v>
+        <v>5.276233207153552</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.256053817683698, 11.471033781652094]</t>
+          <t>[-2.4909000584535317, 13.043366472760637]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2671851356721482</v>
+        <v>0.1780471529245533</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2671851356721482</v>
+        <v>0.1780471529245533</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.050421759583237, 2.213895123250465]</t>
+          <t>[-3.9560796378538132, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5578227987402717</v>
+        <v>0.6023559687572053</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5578227987402717</v>
+        <v>0.6023559687572053</v>
       </c>
       <c r="T3" t="n">
-        <v>10.57708117518096</v>
+        <v>10.03946359465063</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.739048372692, 14.415113977669929]</t>
+          <t>[6.0083633259203255, 14.07056386338093]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.443404833878503e-06</v>
+        <v>8.717931041735127e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.443404833878503e-06</v>
+        <v>8.717931041735127e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.215215215215217</v>
+        <v>2.862862862862862</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.751751751751751</v>
+        <v>-8.126126126126126</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.18218218218218</v>
+        <v>13.85185185185185</v>
       </c>
     </row>
     <row r="4">
@@ -767,67 +767,67 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2784857805085191</v>
+        <v>0.1752866512648321</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2784857805085191</v>
+        <v>0.1752866512648321</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001371436079817601</v>
+        <v>0.00774881200935984</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001371436079817601</v>
+        <v>0.00774881200935984</v>
       </c>
       <c r="L4" t="n">
-        <v>3.972531784161972</v>
+        <v>5.22298636210083</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.364706768121327, 10.309770336445272]</t>
+          <t>[-1.8807040566824256, 12.326676780884085]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2132541625149693</v>
+        <v>0.1456098478450574</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2132541625149693</v>
+        <v>0.1456098478450574</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1635263443310002</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.2579479370560818, 2.9308952483940813]</t>
+          <t>[-3.0944215927250815, 2.742211004935235]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.91570923280726</v>
+        <v>0.9038038866500524</v>
       </c>
       <c r="S4" t="n">
-        <v>0.91570923280726</v>
+        <v>0.9038038866500524</v>
       </c>
       <c r="T4" t="n">
-        <v>9.215351047281569</v>
+        <v>10.0706121846206</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.592913282415344, 12.837788812147794]</t>
+          <t>[6.017279192371847, 14.123945176869361]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.084682913520822e-06</v>
+        <v>9.074576681200597e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>6.084682913520822e-06</v>
+        <v>9.074576681200597e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5725725725725752</v>
+        <v>0.6166166166166178</v>
       </c>
       <c r="Y4" t="n">
-        <v>-10.26226226226226</v>
+        <v>-9.601601601601599</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.40740740740741</v>
+        <v>10.83483483483483</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.126222436077484</v>
+        <v>0.09238033510061905</v>
       </c>
       <c r="I5" t="n">
-        <v>0.126222436077484</v>
+        <v>0.09238033510061905</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.741749377629045</v>
+        <v>6.548191270500433</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.1781016217671247, 12.661600377025215]</t>
+          <t>[-0.8219344922005956, 13.918317033201461]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1016228379346555</v>
+        <v>0.08026780137563194</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1016228379346555</v>
+        <v>0.08026780137563194</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08176317216550011</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, 1.6981581911296182]</t>
+          <t>[-1.7799213632951183, 1.4277107755052718]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9193039837615593</v>
+        <v>0.8259710796406292</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9193039837615593</v>
+        <v>0.8259710796406292</v>
       </c>
       <c r="T5" t="n">
-        <v>8.669006341723284</v>
+        <v>9.736785335219743</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.6850640694187256, 12.652948614027842]</t>
+          <t>[5.51462843365824, 13.958942236781246]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.95050522845353e-05</v>
+        <v>2.971729150846869e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.95050522845353e-05</v>
+        <v>2.971729150846869e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>22.91783783783803</v>
+        <v>0.6496896896896907</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.94432432432446</v>
+        <v>-5.267127127127174</v>
       </c>
       <c r="Z5" t="n">
-        <v>28.89135135135159</v>
+        <v>6.566506506506555</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1482887594696771</v>
+        <v>0.1349572276571149</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1482887594696771</v>
+        <v>0.1349572276571149</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.2055146447282</v>
+        <v>5.725493192987031</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.111143322915198, 14.522172612371598]</t>
+          <t>[-1.1093229670456601, 12.560309353019722]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1398679898862385</v>
+        <v>0.09848502267958015</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1398679898862385</v>
+        <v>0.09848502267958015</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2767368904063083</v>
+        <v>0.03144737390980801</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.471763589310889, 1.9182898084982725]</t>
+          <t>[-1.534631846798618, 1.597526594618234]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8007085769749671</v>
+        <v>0.9679181859747743</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8007085769749671</v>
+        <v>0.9679181859747743</v>
       </c>
       <c r="T6" t="n">
-        <v>11.40848133502589</v>
+        <v>9.701079625448562</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.918279665161648, 15.898683004890131]</t>
+          <t>[5.657019814052813, 13.745139436844312]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.217918690376578e-06</v>
+        <v>1.608523076712665e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>6.217918690376578e-06</v>
+        <v>1.608523076712665e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.022702702702713</v>
+        <v>23.06398398398417</v>
       </c>
       <c r="Y6" t="n">
-        <v>-7.089189189189248</v>
+        <v>17.28638638638652</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.134594594594674</v>
+        <v>28.84158158158181</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07553616276333963</v>
+        <v>0.2622916470697917</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07553616276333963</v>
+        <v>0.2622916470697917</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.316036119683565</v>
+        <v>4.841803257761281</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.09922076428176396, 12.731293003648894]</t>
+          <t>[-2.213881566690411, 11.897488082212973]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.05349642164538304</v>
+        <v>0.1737534500124491</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05349642164538304</v>
+        <v>0.1737534500124491</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006289474781961069</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.3899739268135027, 1.4025528763774249]</t>
+          <t>[-3.1321584414168506, 3.0315268449054664]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.9928013641075455</v>
+        <v>0.9739130576602755</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9928013641075455</v>
+        <v>0.9739130576602755</v>
       </c>
       <c r="T7" t="n">
-        <v>10.60763508931529</v>
+        <v>10.27229146563215</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.702635508576119, 14.51263467005447]</t>
+          <t>[6.051283583022979, 14.493299348241322]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.889201669103002e-06</v>
+        <v>1.275864820460271e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.889201669103002e-06</v>
+        <v>1.275864820460271e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>23.19675675675695</v>
+        <v>0.1856256256256259</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.0367567567569</v>
+        <v>-11.18394394394404</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.35675675675699</v>
+        <v>11.55519519519529</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01817816738469902</v>
+        <v>0.2590132678382158</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01817816738469902</v>
+        <v>0.2590132678382158</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.513704881316851</v>
+        <v>4.440994121989735</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.382806295544249, 13.644603467089453]</t>
+          <t>[-2.191845011422531, 11.073833255402]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01743778683081598</v>
+        <v>0.1842343134263993</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01743778683081598</v>
+        <v>0.1842343134263993</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1446579199851161</v>
+        <v>0.04402632347373014</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, 1.2075791581366184]</t>
+          <t>[-2.9246057736121207, 3.012658420559581]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7852554306129498</v>
+        <v>0.9763026762858691</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7852554306129498</v>
+        <v>0.9763026762858691</v>
       </c>
       <c r="T8" t="n">
-        <v>11.05202443957977</v>
+        <v>9.161493116969485</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.38706060649328, 14.71698827266627]</t>
+          <t>[5.308178027072726, 13.014808206866244]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.426787362175276e-07</v>
+        <v>1.852932164392307e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.426787362175276e-07</v>
+        <v>1.852932164392307e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>22.68540540540559</v>
+        <v>23.01757757757776</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.75729729729744</v>
+        <v>12.06566566566577</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.61351351351373</v>
+        <v>33.96948948948976</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08775373781642992</v>
+        <v>0.07039573888974016</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08775373781642992</v>
+        <v>0.07039573888974016</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.636153714498886</v>
+        <v>6.566966119157724</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.556356543952722, 11.828663972950494]</t>
+          <t>[-0.8491966658775674, 13.983128904193016]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07340054481110614</v>
+        <v>0.08125394123949037</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07340054481110614</v>
+        <v>0.08125394123949037</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1949737182408082</v>
+        <v>0.4717106086471157</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.4340002502872329, 1.8239476867688493]</t>
+          <t>[-1.4088423511593868, 2.352263568453618]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.8105956835049362</v>
+        <v>0.6158769696279236</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8105956835049362</v>
+        <v>0.6158769696279236</v>
       </c>
       <c r="T9" t="n">
-        <v>10.23871344611639</v>
+        <v>10.61760034412372</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.650397598388068, 13.82702929384471]</t>
+          <t>[6.645056069085972, 14.59014461916146]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.404979918135268e-07</v>
+        <v>2.543639260776942e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>7.404979918135268e-07</v>
+        <v>2.543639260776942e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>22.49945945945964</v>
+        <v>21.43975975975993</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.47945945945959</v>
+        <v>14.50200200200212</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.5194594594597</v>
+        <v>28.37751751751775</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1093218101275631</v>
+        <v>0.2934773490880823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1093218101275631</v>
+        <v>0.2934773490880823</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.202342835494605</v>
+        <v>4.20606063587007</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.7101537673743934, 14.114839438363603]</t>
+          <t>[-2.489586269975817, 10.901707541715957]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1213891039990893</v>
+        <v>0.2123062820017196</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1213891039990893</v>
+        <v>0.2123062820017196</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.2578684660604234</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6855792415656952, 2.6793162571156204]</t>
+          <t>[-2.8742899753564277, 3.3900269074772744]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.6487698813158338</v>
+        <v>0.8690415586680553</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6487698813158338</v>
+        <v>0.8690415586680553</v>
       </c>
       <c r="T10" t="n">
-        <v>9.409774038990411</v>
+        <v>10.65460982224302</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.287333572179609, 13.532214505801214]</t>
+          <t>[6.829554764241863, 14.479664880244183]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.469243172582459e-05</v>
+        <v>1.178824179159932e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.469243172582459e-05</v>
+        <v>1.178824179159932e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>21.38378378378396</v>
+        <v>22.22866866866885</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.31837837837848</v>
+        <v>10.67347347347356</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.44918918918943</v>
+        <v>33.78386386386413</v>
       </c>
     </row>
   </sheetData>
